--- a/templates/templateStudent.xlsx
+++ b/templates/templateStudent.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4CCABB-8E78-4F5B-BC1B-75CBD92AF76F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7695" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProgramIDS" sheetId="2" relationships:id="rId5"/>
+    <sheet name="student" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>DNI</t>
   </si>
@@ -30,15 +35,12 @@
   <si>
     <t>Apellidos y Nombres</t>
   </si>
-  <si>
-    <t>ID Programa</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +59,10 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -79,17 +75,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -397,22 +393,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="6.85546875"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="37.5703125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="19.42578125"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17.28515625"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,37 +417,12 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Hello world.</v>
-      </c>
-    </row>
-  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/templateStudent.xlsx
+++ b/templates/templateStudent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4CCABB-8E78-4F5B-BC1B-75CBD92AF76F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387F4292-B651-4388-99ED-819A65AE8DBB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DNI</t>
   </si>
@@ -35,12 +35,18 @@
   <si>
     <t>Apellidos y Nombres</t>
   </si>
+  <si>
+    <t>Año Egreso</t>
+  </si>
+  <si>
+    <t>Año Ingreso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +56,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,9 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,20 +422,28 @@
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
   </sheetData>

--- a/templates/templateStudent.xlsx
+++ b/templates/templateStudent.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387F4292-B651-4388-99ED-819A65AE8DBB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA07DFB-FD56-4F90-B1BB-9356CF9602AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="student" sheetId="1" r:id="rId1"/>
+    <sheet name="Student" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,21 +25,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>DNI</t>
   </si>
   <si>
-    <t>Telefono</t>
-  </si>
-  <si>
     <t>Apellidos y Nombres</t>
   </si>
   <si>
-    <t>Año Egreso</t>
-  </si>
-  <si>
-    <t>Año Ingreso</t>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Lugar de nacimiento</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Estado civil</t>
+  </si>
+  <si>
+    <t>Trabaja</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>Sexo:</t>
+  </si>
+  <si>
+    <t>yes ó no</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si se indica </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = si entonces debe llenar el campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>puesto</t>
+    </r>
+  </si>
+  <si>
+    <t>F ó M</t>
+  </si>
+  <si>
+    <t>Trabaja:</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento:</t>
   </si>
 </sst>
 </file>
@@ -71,15 +153,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,22 +181,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD5F4FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -411,40 +550,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
